--- a/avancement.xlsx
+++ b/avancement.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothe JARRT\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothe JARRT\Documents\GitHub\worknshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8DC63-89CB-4991-B3D9-9621436C1B3B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5160" xr2:uid="{C20ADE57-AC1E-4B9A-AA0A-6CBFEC95AB6E}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Mission 1</t>
   </si>
@@ -129,6 +130,27 @@
   </si>
   <si>
     <t>Descritif fonctionnel détaillé</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>benjamin</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Timothé / Quentin</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>Benjamin / Quentin</t>
+  </si>
+  <si>
+    <t>Personnes</t>
   </si>
 </sst>
 </file>
@@ -322,8 +344,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,10 +364,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,13 +388,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,10 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,25 +427,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,906 +750,1055 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B595F24A-A295-43BB-B356-61DBB13D7DC8}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69:H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="1">
         <v>0.25</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="1">
         <v>0.5</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="1">
         <v>0.75</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D30" s="1">
         <v>0.25</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E30" s="1">
         <v>0.5</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F30" s="1">
         <v>0.75</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="1">
         <v>0</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D44" s="1">
         <v>0.25</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E44" s="1">
         <v>0.5</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F44" s="1">
         <v>0.75</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="28"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="28"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="28"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="28"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="28"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="20"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="28"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="G56" s="20"/>
+      <c r="H56" s="28"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="28"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="28"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="28"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="28"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="28"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="28"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="28"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="27"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="1">
         <v>0</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D70" s="1">
         <v>0.25</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E70" s="1">
         <v>0.5</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F70" s="1">
         <v>0.75</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="H70" s="29"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="28"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="28"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="187">
-    <mergeCell ref="A39:G40"/>
-    <mergeCell ref="A65:G66"/>
+  <mergeCells count="220">
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="A41:H42"/>
+    <mergeCell ref="A57:H58"/>
+    <mergeCell ref="A67:H68"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A73:B74"/>
     <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A25:B26"/>
     <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="G75:G76"/>
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:C72"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
     <mergeCell ref="A63:B64"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="D63:D64"/>
@@ -1637,13 +1817,12 @@
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="F59:F60"/>
     <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A55:G56"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
     <mergeCell ref="A53:B54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="D53:D54"/>
@@ -1668,20 +1847,20 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:G43"/>
     <mergeCell ref="A45:B46"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="A37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
@@ -1694,71 +1873,68 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="A33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A3:B4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
@@ -1768,16 +1944,11 @@
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A25:G26"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="2">
@@ -1791,7 +1962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:G24">
+  <conditionalFormatting sqref="C5:G26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/avancement.xlsx
+++ b/avancement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothe JARRT\Documents\GitHub\worknshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8DC63-89CB-4991-B3D9-9621436C1B3B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF3FD9E-C7D4-4127-927E-2FF113096671}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5160" xr2:uid="{C20ADE57-AC1E-4B9A-AA0A-6CBFEC95AB6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Mission 1</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Personnes</t>
+  </si>
+  <si>
+    <t>Timothé</t>
   </si>
 </sst>
 </file>
@@ -349,34 +352,79 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,52 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +756,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69:H70"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,44 +766,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="29" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1">
         <v>0</v>
       </c>
@@ -816,323 +819,323 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="28" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="28"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="28"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="28"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="28"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="28" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="28"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="28" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="28"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="28"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="28"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="28"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="28"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="28"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="28" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="28"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="28" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="28"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="29" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="1">
         <v>0</v>
       </c>
@@ -1148,167 +1151,167 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="28"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="28"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="28"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="28"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="28"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="28"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="28"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="28"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="28"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="28"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="11"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="29" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="1">
         <v>0</v>
       </c>
@@ -1324,315 +1327,317 @@
       <c r="G44" s="1">
         <v>1</v>
       </c>
-      <c r="H44" s="29"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="28" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="28"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="28" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="28"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="28" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="28"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="28"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="28"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="28"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="28"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="28"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="28"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="4"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="6"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="28"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="28"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="28"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="28"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="28"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="28"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="28"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="28"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="11"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="12" t="s">
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="29" t="s">
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="1">
         <v>0</v>
       </c>
@@ -1648,87 +1653,283 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
-      <c r="H70" s="29"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="28" t="s">
+      <c r="B71" s="13"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="28"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="28"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="28"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="28" t="s">
+      <c r="B75" s="20"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="28"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="2"/>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="220">
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="H63:H64"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="H69:H70"/>
@@ -1753,202 +1954,6 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A69:B70"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F6">
     <cfRule type="colorScale" priority="2">
